--- a/backend/src/utils/Modelo Importacao.xlsx
+++ b/backend/src/utils/Modelo Importacao.xlsx
@@ -67,6 +67,7 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -74,6 +75,7 @@
       <color rgb="FFA8892A"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -83,17 +85,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -167,48 +170,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -295,9 +302,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>845640</xdr:colOff>
+      <xdr:colOff>845280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:rowOff>199440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -311,7 +318,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1832400" cy="2009520"/>
+          <a:ext cx="1832040" cy="2009160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -504,142 +511,150 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="9:9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="60"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="1" width="22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" s="7" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" s="6" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="J10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
-      <c r="J11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
+      <c r="A13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
+      <c r="A15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
+      <c r="A17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
+      <c r="A18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
+      <c r="A19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
+      <c r="A20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
+      <c r="A21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
+      <c r="A22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
+      <c r="A23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
+      <c r="A24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
+      <c r="A25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
+      <c r="A26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
+      <c r="A27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
+      <c r="A28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
+      <c r="A29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/backend/src/utils/Modelo Importacao.xlsx
+++ b/backend/src/utils/Modelo Importacao.xlsx
@@ -302,9 +302,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>845280</xdr:colOff>
+      <xdr:colOff>844920</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>199440</xdr:rowOff>
+      <xdr:rowOff>199080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -318,7 +318,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1832040" cy="2009160"/>
+          <a:ext cx="1831680" cy="2008800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -514,13 +514,13 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="9:9"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="60"/>
@@ -557,8 +557,8 @@
       <c r="C6" s="4"/>
     </row>
     <row r="7" s="6" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -574,8 +574,6 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
